--- a/src/test/resources/excel_project.xlsx
+++ b/src/test/resources/excel_project.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0dae5e7ea96253a6/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{0B559F1C-C656-4BED-B0A7-C4B01674F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096B3920-485A-4DB0-8AD8-D724329A629A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{22CD049E-DB2A-41D2-96A1-F7A63BB78FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71759AC2-90A9-4DD5-8B8D-4BD25CD44D71}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" xr2:uid="{71759AC2-90A9-4DD5-8B8D-4BD25CD44D71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
